--- a/pages/mydoc/mydoc_linux_softwareList.xlsx
+++ b/pages/mydoc/mydoc_linux_softwareList.xlsx
@@ -554,7 +554,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
